--- a/rhla_analysis/rhla1_6_zipf_result/k6.xlsx
+++ b/rhla_analysis/rhla1_6_zipf_result/k6.xlsx
@@ -457,21 +457,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.192425705910765</v>
+        <v>1.192425705910772</v>
       </c>
       <c r="B2" t="n">
-        <v>57.84412192062919</v>
+        <v>57.84412192062918</v>
       </c>
       <c r="C2" t="n">
         <v>0.1490156143923965</v>
       </c>
       <c r="D2" t="n">
-        <v>48.50962339531948</v>
+        <v>48.5096233953192</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.1491168528289609</v>
+        <v>0.1491168528289613</v>
       </c>
       <c r="B3" t="n">
         <v>9.563245626259597</v>
@@ -480,12 +480,12 @@
         <v>0.1289884589273591</v>
       </c>
       <c r="D3" t="n">
-        <v>64.1325607725156</v>
+        <v>64.13256077251542</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.4164122183668124</v>
+        <v>0.4164122183668128</v>
       </c>
       <c r="B4" t="n">
         <v>20.34125288736183</v>
@@ -494,12 +494,12 @@
         <v>0.1303462321792261</v>
       </c>
       <c r="D4" t="n">
-        <v>48.84883773857825</v>
+        <v>48.8488377385782</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.3027594971469126</v>
+        <v>0.3027594971469122</v>
       </c>
       <c r="B5" t="n">
         <v>9.855720210273553</v>
@@ -508,12 +508,12 @@
         <v>0.1262729124236253</v>
       </c>
       <c r="D5" t="n">
-        <v>32.55296796021269</v>
+        <v>32.55296796021274</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>166.3155833275305</v>
+        <v>166.3155833275289</v>
       </c>
       <c r="B6" t="n">
         <v>28823.43227624893</v>
@@ -522,12 +522,12 @@
         <v>0.1310251188051595</v>
       </c>
       <c r="D6" t="n">
-        <v>173.3056620406161</v>
+        <v>173.3056620406178</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.330614997727931</v>
+        <v>1.330614997727937</v>
       </c>
       <c r="B7" t="n">
         <v>179.0767345636764</v>
@@ -536,12 +536,12 @@
         <v>0.1469789545145961</v>
       </c>
       <c r="D7" t="n">
-        <v>134.5819300620058</v>
+        <v>134.5819300620052</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.3920650917344952</v>
+        <v>0.3920650917344968</v>
       </c>
       <c r="B8" t="n">
         <v>18.00217313038046</v>
@@ -550,26 +550,26 @@
         <v>0.1300067888662593</v>
       </c>
       <c r="D8" t="n">
-        <v>45.91628663173986</v>
+        <v>45.91628663173967</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.5287860688045884</v>
+        <v>0.5287860688045841</v>
       </c>
       <c r="B9" t="n">
-        <v>64.08916141092348</v>
+        <v>64.08916141092347</v>
       </c>
       <c r="C9" t="n">
         <v>0.1198234894772573</v>
       </c>
       <c r="D9" t="n">
-        <v>121.2005481835178</v>
+        <v>121.2005481835188</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.6346742225630319</v>
+        <v>0.6346742225630312</v>
       </c>
       <c r="B10" t="n">
         <v>32.7424506499335</v>
@@ -578,12 +578,12 @@
         <v>0.1340801086218602</v>
       </c>
       <c r="D10" t="n">
-        <v>51.58938158494647</v>
+        <v>51.58938158494653</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.2936510163764111</v>
+        <v>0.2936510163764114</v>
       </c>
       <c r="B11" t="n">
         <v>21.39978045167143</v>
@@ -592,7 +592,7 @@
         <v>0.1296673455532926</v>
       </c>
       <c r="D11" t="n">
-        <v>72.87487275113162</v>
+        <v>72.87487275113153</v>
       </c>
     </row>
   </sheetData>
